--- a/Excel/Assignment 2.1.xlsx
+++ b/Excel/Assignment 2.1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup\OneDrive\Desktop\Data analyst\Assignment Data\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup\OneDrive\Desktop\Data analyst\Assignment Data\Assignment\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA9E794-62AD-411E-A0C2-0BCAC34E2F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vlookup" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Master Emp sheet" sheetId="2" r:id="rId4"/>
     <sheet name="Source" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,13 +31,34 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="269">
   <si>
@@ -851,7 +873,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
@@ -1152,7 +1174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -1196,6 +1218,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1229,8 +1252,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1544,11 +1565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1737,10 +1758,10 @@
       <c r="K9" s="1">
         <v>22000</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="22"/>
+      <c r="N9" s="23"/>
       <c r="O9" s="5" t="s">
         <v>101</v>
       </c>
@@ -1776,7 +1797,7 @@
       <c r="M10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="1">
         <f>MAX(K5:K42)</f>
         <v>92000</v>
       </c>
@@ -1824,7 +1845,7 @@
         <f>INDEX($D$5:$D$42,MATCH($N11,$K$5:$K$42,0))</f>
         <v>Satish</v>
       </c>
-      <c r="R11" s="33"/>
+      <c r="R11" s="21"/>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
@@ -1948,7 +1969,7 @@
         <v>71</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>70</v>
@@ -1985,13 +2006,13 @@
       <c r="M16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="32">
+      <c r="N16" s="1">
         <f t="array" ref="N16">MAX(IF(J5:J42=N15,K5:K42))</f>
-        <v>92000</v>
-      </c>
-      <c r="O16" s="1" t="str">
-        <f>INDEX(CONCATENATE($D$5:$D$42," ",$E$5:$E$42),MATCH($N10,$K$5:$K$42,0))</f>
-        <v>Dinesh Dhanuka</v>
+        <v>91000</v>
+      </c>
+      <c r="O16" s="1" t="str" cm="1">
+        <f t="array" ref="O16">_xlfn.SINGLE(INDEX(CONCATENATE($D$5:$D$42," ",$E$5:$E$42),MATCH($N16,$K$5:$K$42,0)))</f>
+        <v>Rajesh Dedhia</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.3">
@@ -2027,11 +2048,11 @@
       </c>
       <c r="N17" s="1">
         <f t="array" ref="N17">MIN(IF($J$5:$J$42=$N$15,$K$5:$K$42))</f>
-        <v>20000</v>
-      </c>
-      <c r="O17" s="1" t="str">
-        <f>INDEX(CONCATENATE($D$5:$D$42," ",$E$5:$E$42),MATCH($N11,$K$5:$K$42,0))</f>
-        <v>Satish Pasari</v>
+        <v>22000</v>
+      </c>
+      <c r="O17" s="1" t="str" cm="1">
+        <f t="array" ref="O17">_xlfn.SINGLE(INDEX(CONCATENATE($D$5:$D$42," ",$E$5:$E$42),MATCH($N17,$K$5:$K$42,0)))</f>
+        <v>Melwyn Crasto</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.3">
@@ -2764,7 +2785,7 @@
     <mergeCell ref="M9:N9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"North,South,East,Mid West"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2774,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -2790,39 +2811,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" s="17" t="s">
@@ -2868,7 +2889,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Change Badge no to see results">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Change Badge no to see results" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Headcount Table'!$A$4:$A$146</xm:f>
           </x14:formula1>
@@ -2881,7 +2902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:D146"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4920,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6200,7 +6221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C5:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6718,7 +6739,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C6:F40">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:F40">
     <sortCondition ref="C5:C40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
